--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>638727.7206129709</v>
+        <v>652738.1687471</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216107</v>
+        <v>16618375.1158991</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484439</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7714597.726046089</v>
+        <v>7769372.146677765</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -671,13 +671,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>252.3720634806884</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>330.0566317171647</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>150.2270688526727</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -829,13 +829,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>63.37161101631722</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>360.6297460809445</v>
+        <v>179.883470512022</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>152.355512532834</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>137.8834167598883</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>156.1378419411959</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>350.3528203999029</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1300,7 +1300,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>210.1409105078477</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>148.9856530197727</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>161.838486137798</v>
+        <v>418.4685657939515</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1424,7 +1424,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>153.2006427344288</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>154.4380635245689</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>146.9399060518606</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>43.77283765622091</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>82.6248312129218</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1856,7 +1856,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>212.6006968854799</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>136.6047512078533</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2002,10 +2002,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>24.62703520776669</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>227.5565200540836</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2093,13 +2093,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>129.7853418074793</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225748</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,7 +2725,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950065</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225813</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>153.2006427344286</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225842</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3424,10 +3424,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>50.3897191873364</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>67.65667327773728</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3442,7 +3442,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3484,7 +3484,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.0567773522577</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3910,10 +3910,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480026168</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3952,7 +3952,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>187.4537730419675</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>411.0681431807213</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4135,13 +4135,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>83.71046610478342</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>31.24391673888136</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>408.814550130601</v>
+        <v>975.110123435923</v>
       </c>
       <c r="C2" t="n">
-        <v>374.7124813544283</v>
+        <v>536.9676506193463</v>
       </c>
       <c r="D2" t="n">
-        <v>342.8431005692769</v>
+        <v>101.0578657937908</v>
       </c>
       <c r="E2" t="n">
-        <v>313.1087597679762</v>
+        <v>71.32352499248999</v>
       </c>
       <c r="F2" t="n">
-        <v>289.2817342175879</v>
+        <v>47.49649944210179</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>47.49649944210179</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>47.49649944210179</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>47.49649944210179</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>482.7511868950197</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1070.520367491029</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1070.520367491029</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1070.520367491029</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1071.402940797429</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1071.402940797429</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1659.172121393438</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2205.670907352032</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2374.824972105089</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2374.824972105089</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2154.757744978128</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>2154.757744978128</v>
       </c>
       <c r="V2" t="n">
-        <v>855.2769502042993</v>
+        <v>2154.757744978128</v>
       </c>
       <c r="W2" t="n">
-        <v>854.4618996557366</v>
+        <v>2153.942694429565</v>
       </c>
       <c r="X2" t="n">
-        <v>839.3598402754513</v>
+        <v>1734.800231008876</v>
       </c>
       <c r="Y2" t="n">
-        <v>835.1141206155088</v>
+        <v>1401.409693920831</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>553.6682444333945</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>447.2117832700368</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>352.1214944165901</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>258.0010797435438</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>174.6172413597054</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>89.23215162588932</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>47.49649944210179</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>47.49649944210179</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>372.0548244083141</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>372.0548244083141</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>372.0548244083141</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>372.0548244083141</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>372.0548244083141</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>465.0553635984858</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.824544194495</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1593.563482826571</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1710.736260920911</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1647.280823369294</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1517.102179699895</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1340.765632699864</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1141.648114761863</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>956.3253604950569</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>801.4579247339369</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>674.9721455131577</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>947.1238364150125</v>
+        <v>718.2677827389821</v>
       </c>
       <c r="C4" t="n">
-        <v>774.5621248982375</v>
+        <v>545.706071222207</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>393.9615572296083</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>224.2035534803456</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>47.49649944210179</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>47.49649944210179</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>47.49649944210179</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>47.49649944210179</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>47.49649944210179</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>119.5035019381153</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>537.7133837060763</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>997.1972508869894</v>
       </c>
       <c r="N4" t="n">
-        <v>815.3347072823371</v>
+        <v>1439.456054044634</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1859.125303270416</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2206.632197240757</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2374.824972105089</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2353.407150810461</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2194.165782108458</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1948.286335686913</v>
       </c>
       <c r="U4" t="n">
-        <v>1675.765608785789</v>
+        <v>1669.853334940018</v>
       </c>
       <c r="V4" t="n">
-        <v>1675.765608785789</v>
+        <v>1382.897826810449</v>
       </c>
       <c r="W4" t="n">
-        <v>1611.753880486479</v>
+        <v>1382.897826810449</v>
       </c>
       <c r="X4" t="n">
-        <v>1366.362125819891</v>
+        <v>1137.506072143861</v>
       </c>
       <c r="Y4" t="n">
-        <v>1138.942455134</v>
+        <v>910.0864014579693</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>484.0636759001416</v>
+        <v>1819.558022317326</v>
       </c>
       <c r="C5" t="n">
-        <v>119.7912051113087</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.3228423446453</v>
+        <v>2245.857592802233</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>187.8381257054811</v>
+        <v>933.2958513705994</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>933.2958513705994</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.8381257054811</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1492.455675949219</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C8" t="n">
-        <v>1334.740684089425</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D8" t="n">
-        <v>898.8308992638698</v>
+        <v>912.8176076703177</v>
       </c>
       <c r="E8" t="n">
-        <v>465.056154422165</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>37.18872483137275</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>37.18872483137275</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137275</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851275</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114306</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>472.0266229114306</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>759.3373055743904</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>759.3373055743904</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>759.3373055743904</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1214.390006873486</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873486</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172581</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925638</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1754.944899109475</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1534.877671982513</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1534.877671982513</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1534.877671982513</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1534.062621433951</v>
+        <v>2232.517214837585</v>
       </c>
       <c r="X8" t="n">
-        <v>1518.960562053665</v>
+        <v>2217.4151554573</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.714842393723</v>
+        <v>2213.169435797357</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330011</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599548</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230028</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851275</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897034</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.446634884278</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>943.2683845536191</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C10" t="n">
-        <v>943.2683845536191</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D10" t="n">
-        <v>777.3903917551418</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E10" t="n">
-        <v>607.6323880058791</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676353</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934629</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851275</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851275</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851275</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>174.1091252727747</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>629.1618265718699</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.420629729515</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.089878955296</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925638</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925638</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925638</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925638</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925638</v>
+        <v>2457.797280463905</v>
       </c>
       <c r="U10" t="n">
-        <v>1838.596772925638</v>
+        <v>2179.364279717011</v>
       </c>
       <c r="V10" t="n">
-        <v>1688.106214319807</v>
+        <v>1892.408771587441</v>
       </c>
       <c r="W10" t="n">
-        <v>1416.079809906098</v>
+        <v>1620.382367173733</v>
       </c>
       <c r="X10" t="n">
-        <v>1170.688055239511</v>
+        <v>1374.990612507145</v>
       </c>
       <c r="Y10" t="n">
-        <v>943.2683845536191</v>
+        <v>1147.570941821253</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168568</v>
+        <v>2511.87917085155</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351991</v>
+        <v>2073.736698034974</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526436</v>
+        <v>1637.826913209418</v>
       </c>
       <c r="E11" t="n">
         <v>1215.131392205427</v>
@@ -5033,10 +5033,10 @@
         <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,22 +5045,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5069,22 +5069,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429652</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363478</v>
+        <v>4170.462783046461</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774512</v>
+        <v>3765.607328457494</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3346.464865036805</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653476</v>
+        <v>2938.178741336458</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
-        <v>96.77217639691919</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>421.3305013631315</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>803.5331699119502</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>1219.236799527848</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>1219.236799527848</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>1219.236799527848</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>1219.236799527848</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1219.236799527848</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="R12" t="n">
         <v>1759.975738159924</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1175.794137292997</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.232425776221</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777442</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T13" t="n">
-        <v>2554.154217881911</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U13" t="n">
-        <v>2399.406093907741</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V13" t="n">
-        <v>2112.450585778171</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W13" t="n">
-        <v>1840.424181364463</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.032426697876</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.612756011984</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>403.2461837293682</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1237.596475687546</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M14" t="n">
-        <v>3292.836108510713</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N14" t="n">
-        <v>3292.836108510713</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510713</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344109</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429652</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363478</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774512</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653476</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,22 +5358,22 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="Q15" t="n">
         <v>1642.802960065584</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1030.691439225644</v>
+        <v>965.4711828007308</v>
       </c>
       <c r="C16" t="n">
-        <v>858.1297277088689</v>
+        <v>792.9094712839558</v>
       </c>
       <c r="D16" t="n">
-        <v>692.2517349103916</v>
+        <v>748.6944837524196</v>
       </c>
       <c r="E16" t="n">
-        <v>522.4937311611288</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F16" t="n">
-        <v>345.7866771228851</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G16" t="n">
-        <v>180.1954021487127</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T16" t="n">
-        <v>2532.736396587283</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U16" t="n">
-        <v>2254.303395840388</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V16" t="n">
-        <v>1967.347887710819</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W16" t="n">
-        <v>1695.32148329711</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X16" t="n">
-        <v>1449.929728630523</v>
+        <v>1384.70947220561</v>
       </c>
       <c r="Y16" t="n">
-        <v>1222.510057944631</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689264</v>
+        <v>2336.30874198473</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>1898.166269168154</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1462.256484342598</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>1028.481739500893</v>
       </c>
       <c r="F17" t="n">
-        <v>787.263962614635</v>
+        <v>600.6143099101009</v>
       </c>
       <c r="G17" t="n">
         <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5519,46 +5519,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.810506693463</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3461.990173263769</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4290.300048097165</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112635</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429652</v>
+        <v>4357.509304245814</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363478</v>
+        <v>3994.89235417964</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774512</v>
+        <v>3590.036899590674</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3170.894436169985</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.257965174172</v>
+        <v>2762.608312469638</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
-        <v>122.7996498415728</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077851</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K18" t="n">
-        <v>1102.064021433509</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L18" t="n">
-        <v>1102.064021433509</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M18" t="n">
-        <v>1102.064021433509</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.064021433509</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="O18" t="n">
-        <v>1102.064021433509</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.2298140987274</v>
+        <v>863.330251466596</v>
       </c>
       <c r="C19" t="n">
-        <v>633.6681025819523</v>
+        <v>863.330251466596</v>
       </c>
       <c r="D19" t="n">
-        <v>633.6681025819523</v>
+        <v>697.4522586681187</v>
       </c>
       <c r="E19" t="n">
-        <v>463.9100988326896</v>
+        <v>527.694254918856</v>
       </c>
       <c r="F19" t="n">
-        <v>287.2030447944458</v>
+        <v>350.9872008806122</v>
       </c>
       <c r="G19" t="n">
-        <v>121.6117698202735</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5707,16 +5707,16 @@
         <v>2029.841770713472</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1799.986699951771</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1527.960295538062</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1282.568540871475</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177146</v>
+        <v>1055.148870185583</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168568</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.514395351991</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526436</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>944.829865684731</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>516.9624360939388</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111519</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112635</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429652</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363478</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774512</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653476</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580464</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412713</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D22" t="n">
-        <v>608.792309442794</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935313</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552875</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2695.15641754123</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119686</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.843970372791</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243221</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829513</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162925</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
         <v>2090.757574835212</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,43 +5996,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423626</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,7 +6169,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S25" t="n">
         <v>2700.681281130895</v>
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957667</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789916</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
         <v>1654.847790009657</v>
@@ -6452,10 +6452,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6494,16 +6494,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
         <v>2955.199618136697</v>
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674083</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903961</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736211</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751438</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>462.798338325881</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449518</v>
+        <v>286.0912842876372</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134649</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6859,13 +6859,13 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745665</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N34" t="n">
         <v>1783.551532113124</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.652494875571</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461863</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835212</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,46 +6941,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423626</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.996046390396</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405613</v>
+        <v>911.219370585325</v>
       </c>
       <c r="D37" t="n">
-        <v>754.219347342084</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.60800300514</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.652494875571</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461862</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795275</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109383</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7160,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903956</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736205</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751432</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258805</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876368</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134644</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134644</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7333,7 +7333,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="41">
@@ -7418,7 +7418,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423628</v>
@@ -7436,22 +7436,22 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
         <v>2955.199618136696</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>790.336856393767</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>617.7751448769919</v>
+        <v>920.0973401405613</v>
       </c>
       <c r="D43" t="n">
-        <v>451.8971520785146</v>
+        <v>754.219347342084</v>
       </c>
       <c r="E43" t="n">
-        <v>282.1391483292518</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F43" t="n">
-        <v>105.4320942910081</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7573,46 +7573,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745692</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955482</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338908</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.72767530925</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878954</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008511</v>
+        <v>2124.452389553094</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878942</v>
+        <v>1837.496881423524</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.966900465233</v>
+        <v>1565.470477009816</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.575145798646</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1554751127542</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771594</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M44" t="n">
-        <v>3603.973621145286</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N44" t="n">
-        <v>3603.973621145286</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O44" t="n">
-        <v>3603.973621145286</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4170.462783046461</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3765.607328457494</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3346.464865036804</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2938.178741336458</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.4325852620724</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D45" t="n">
-        <v>406.885835245268</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722217</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883833</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I45" t="n">
-        <v>128.3245134312372</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J45" t="n">
-        <v>452.8828383974496</v>
+        <v>421.3305013631315</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.327823655249</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.500601749588</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S45" t="n">
-        <v>1702.045164197971</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.866520528573</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V45" t="n">
-        <v>1196.412455590541</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W45" t="n">
-        <v>1011.089701323735</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X45" t="n">
-        <v>856.2222655626148</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.7364863418355</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>811.7546776883917</v>
+        <v>784.8119928040992</v>
       </c>
       <c r="C46" t="n">
-        <v>811.7546776883917</v>
+        <v>612.2502812873241</v>
       </c>
       <c r="D46" t="n">
-        <v>645.8766848899145</v>
+        <v>612.2502812873241</v>
       </c>
       <c r="E46" t="n">
-        <v>476.1186811406517</v>
+        <v>527.694254918856</v>
       </c>
       <c r="F46" t="n">
-        <v>299.4116271024079</v>
+        <v>350.9872008806122</v>
       </c>
       <c r="G46" t="n">
-        <v>133.8203521282355</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354695</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955479</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338905</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173567</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759858</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.992967093271</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.573296407379</v>
+        <v>976.6306115230864</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>593.7062430262724</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.8914881882819827</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>593.7062430262722</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,16 +8052,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>93.93993857593102</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>593.7062430262723</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,22 +8134,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>72.73434595556925</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,19 +8377,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>290.2128107706665</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314094</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314094</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662714</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558201</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314094</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8763,16 +8763,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03656536949898737</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>419.9026561776752</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8933,13 +8933,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>860.035541581457</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9006,10 +9006,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1126.736919799244</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9182,10 +9182,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>421.9740460140702</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807277</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,10 +9717,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10428,22 +10428,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10589,13 +10589,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,22 +10665,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,22 +10829,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,22 +11303,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682412</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>267.5985112554898</v>
+        <v>10.96843159933627</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>122.4480280049969</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>267.5985112554898</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>268.0111327346218</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>55.87832135360742</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>184.7831561774889</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>267.5985112554898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>113.8761173587625</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>56.52943299419027</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>267.5985112554894</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424608</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.146865729424064</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627252</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>90.22000922290073</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627261</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>120.4463752142709</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>96.56253959275524</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081346</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627256</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-5.704649521612364e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444044</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>88.19489769745817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>10.96843159933741</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>84.34995760698669</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>107.2592358276479</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>638819.2246422587</v>
+        <v>652718.131809669</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>638819.2246422587</v>
+        <v>658773.6279345264</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>641719.7122932465</v>
+        <v>658773.6279345264</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>659233.9039246804</v>
+        <v>659233.9039246805</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659233.9039246807</v>
+        <v>687054.3279887678</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>687054.327988768</v>
+        <v>687054.3279887678</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>687054.3279887678</v>
+        <v>659233.9039246804</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348495.7579287654</v>
+        <v>348495.7579287655</v>
       </c>
       <c r="C2" t="n">
         <v>348495.7579287654</v>
       </c>
       <c r="D2" t="n">
-        <v>348495.7579287655</v>
+        <v>348495.7579287654</v>
       </c>
       <c r="E2" t="n">
+        <v>328590.5336815898</v>
+      </c>
+      <c r="F2" t="n">
         <v>328590.5336815896</v>
-      </c>
-      <c r="F2" t="n">
-        <v>328590.5336815897</v>
       </c>
       <c r="G2" t="n">
         <v>328590.5336815896</v>
       </c>
       <c r="H2" t="n">
-        <v>328590.5336815897</v>
+        <v>342457.429689279</v>
       </c>
       <c r="I2" t="n">
         <v>342457.429689279</v>
@@ -26353,7 +26353,7 @@
         <v>342457.4296892789</v>
       </c>
       <c r="P2" t="n">
-        <v>342457.4296892789</v>
+        <v>328590.5336815896</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>198964.6172816934</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23845.51249725157</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720027</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>18633.22400329721</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283946</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>155339.676250366</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18996.06533906527</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509913</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218225.2660325691</v>
+        <v>193352.5593565078</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="D4" t="n">
-        <v>213034.7156035601</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
         <v>103931.2982770052</v>
@@ -26433,7 +26433,7 @@
         <v>103931.2982770052</v>
       </c>
       <c r="H4" t="n">
-        <v>103931.2982770052</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="I4" t="n">
         <v>108317.3178284629</v>
@@ -26457,7 +26457,7 @@
         <v>108317.3178284629</v>
       </c>
       <c r="P4" t="n">
-        <v>108317.3178284629</v>
+        <v>103931.2982770052</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>69724.93957599736</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846969</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26509,7 +26509,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>73519.34227764752</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-71345.59690073598</v>
+        <v>-113546.3582854331</v>
       </c>
       <c r="C6" t="n">
-        <v>70845.70375897398</v>
+        <v>67921.73859642846</v>
       </c>
       <c r="D6" t="n">
-        <v>62904.96470473299</v>
+        <v>91767.25109368008</v>
       </c>
       <c r="E6" t="n">
-        <v>-72659.40062509059</v>
+        <v>-10671.7406379742</v>
       </c>
       <c r="F6" t="n">
-        <v>151139.8931269369</v>
+        <v>151063.3345721401</v>
       </c>
       <c r="G6" t="n">
-        <v>151139.8931269369</v>
+        <v>151063.33457214</v>
       </c>
       <c r="H6" t="n">
-        <v>151139.8931269369</v>
+        <v>137765.4249123437</v>
       </c>
       <c r="I6" t="n">
-        <v>138057.1576221841</v>
+        <v>156398.6489156409</v>
       </c>
       <c r="J6" t="n">
-        <v>45407.40791003338</v>
+        <v>1058.972665274933</v>
       </c>
       <c r="K6" t="n">
-        <v>156421.8732550236</v>
+        <v>137402.5835765756</v>
       </c>
       <c r="L6" t="n">
-        <v>147474.2621665135</v>
+        <v>156398.6489156408</v>
       </c>
       <c r="M6" t="n">
-        <v>-30369.11335544422</v>
+        <v>21408.70430263738</v>
       </c>
       <c r="N6" t="n">
-        <v>156421.8732550235</v>
+        <v>156398.6489156408</v>
       </c>
       <c r="O6" t="n">
-        <v>156421.8732550235</v>
+        <v>156398.6489156408</v>
       </c>
       <c r="P6" t="n">
-        <v>156421.8732550235</v>
+        <v>151063.3345721401</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>593.7062430262723</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314094</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26805,7 +26805,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26829,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1209.19970851394</v>
       </c>
     </row>
   </sheetData>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>593.7062430262723</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>73.80896358158463</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130508</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,22 +27027,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080547</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>593.7062430262723</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>73.80896358158463</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130508</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>593.7062430262723</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>73.80896358158463</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130508</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>69.06079487080569</v>
       </c>
     </row>
   </sheetData>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>145.0117895822804</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>74.14663074617835</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>13.99214401781984</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>205.9345293532542</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>73.13130200746645</v>
+        <v>253.8775775763889</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>18.4805818687733</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>26.33579611060421</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>277.623206147215</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,7 +27913,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>50.45407964317411</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>33.27974144948155</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>135.1003000285012</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>593.7062430262724</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.8914881882819827</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>593.7062430262722</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>93.93993857593102</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>593.7062430262723</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,22 +34854,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>72.73434595556925</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>290.2128107706665</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314094</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314094</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662714</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558201</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314094</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03656536949898737</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>419.9026561776752</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35653,13 +35653,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>860.035541581457</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35726,10 +35726,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35887,25 +35887,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1126.736919799244</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>421.9740460140702</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36121,13 +36121,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807277</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,7 +36285,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,10 +36437,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36674,7 +36674,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,10 +36689,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37148,22 +37148,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.4542274390807</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080418</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,13 +37309,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37385,22 +37385,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37941,7 +37941,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080447</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38017,28 +38017,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682412</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
